--- a/medicine/Enfance/Chantal_Pelletier/Chantal_Pelletier.xlsx
+++ b/medicine/Enfance/Chantal_Pelletier/Chantal_Pelletier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chantal Pelletier, née le 6 juin 1949 dans le 3e arrondissement de Lyon[1], est une romancière, nouvelliste et scénariste française après avoir été au Café-théâtre une des 3 Jeanne, « Les premières humoristes féministes en France»[2].
-Elle a publié une trentaine de livres dont six à la Série noire Gallimard, parmi lesquels, en 2000, Le chant du bouc (Grand prix du roman noir de Cognac[3] 2001) et, en 2022, Sens interdits[4].
-Le voyage, la gastronomie et le cinéma marquent ses écrits et notamment ses cinq romans chez Joëlle Losfeld dont en 2013 Cinq Femmes chinoises (Prix printemps du roman à Saint Louis [5] 2013) et, en 2023, L'ourson.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Pelletier, née le 6 juin 1949 dans le 3e arrondissement de Lyon, est une romancière, nouvelliste et scénariste française après avoir été au Café-théâtre une des 3 Jeanne, « Les premières humoristes féministes en France».
+Elle a publié une trentaine de livres dont six à la Série noire Gallimard, parmi lesquels, en 2000, Le chant du bouc (Grand prix du roman noir de Cognac 2001) et, en 2022, Sens interdits.
+Le voyage, la gastronomie et le cinéma marquent ses écrits et notamment ses cinq romans chez Joëlle Losfeld dont en 2013 Cinq Femmes chinoises (Prix printemps du roman à Saint Louis  2013) et, en 2023, L'ourson.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études en psychologie, Chantal Pelletier obtient son diplôme à l'Université de Bruxelles en 1972. Elle fait ensuite du théâtre, joue dans quelques courts métrages, puis devient journaliste et rédactrice publicitaire à Paris en 1974. Pendant dix ans, de 1976 à 1986, elle est une des « Les 3 Jeanne » trio féministe et caustique qui jouera dans de nombreux théâtres à Paris, en Province et à l’étranger[6],[7] Elle coécrit ensuite et met en scène deux « one woman show » pour Martine Boéri, avant le décès de celle-ci en 1992 : Arthur[8] et Et pendant de temps les Japonais travaillent[9].
-Après avoir publié quelques romans et avoir été dialoguiste et scénariste pour le cinéma et la télévision, elle écrit à la fin des années 1990 des romans policiers autour de l’inspecteur Maurice Laice, flic dépressif et daltonien, solitaire et infirme du cœur[10]… Suivront d’autres romans noirs chez d’autres éditeurs, comme les éditions Fayard ou les éditions La Branche qui publient en 2007 Tirez sur le caviste (folio policier no 908) dans la collection Suite noire, novella adaptée par Emmanuelle Bercot avec Niels Arestrup et Julie-Marie Parmentier[11]. Le film a reçu le prix Audace du syndicat de la critique en 2009.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études en psychologie, Chantal Pelletier obtient son diplôme à l'Université de Bruxelles en 1972. Elle fait ensuite du théâtre, joue dans quelques courts métrages, puis devient journaliste et rédactrice publicitaire à Paris en 1974. Pendant dix ans, de 1976 à 1986, elle est une des « Les 3 Jeanne » trio féministe et caustique qui jouera dans de nombreux théâtres à Paris, en Province et à l’étranger, Elle coécrit ensuite et met en scène deux « one woman show » pour Martine Boéri, avant le décès de celle-ci en 1992 : Arthur et Et pendant de temps les Japonais travaillent.
+Après avoir publié quelques romans et avoir été dialoguiste et scénariste pour le cinéma et la télévision, elle écrit à la fin des années 1990 des romans policiers autour de l’inspecteur Maurice Laice, flic dépressif et daltonien, solitaire et infirme du cœur… Suivront d’autres romans noirs chez d’autres éditeurs, comme les éditions Fayard ou les éditions La Branche qui publient en 2007 Tirez sur le caviste (folio policier no 908) dans la collection Suite noire, novella adaptée par Emmanuelle Bercot avec Niels Arestrup et Julie-Marie Parmentier. Le film a reçu le prix Audace du syndicat de la critique en 2009.
 Outre une dizaine de romans dont cinq chez Joëlle Losfeld, elle a écrit de nombreuses nouvelles parues dans des recueils collectifs, des revues et quotidiens (Le monde et Libération), et deux recueils personnels (un à la Série noire Gallimard, l’autre chez Fayard Noir).
-Elle a dirigé, de 2007 à 2011, la collection gourmande « Exquis d’écrivains » aux éditions Nil [12] et édité 13 auteurs extrêmement différents comme Pierre Pelot, Martin Winckler, Claude Pujade-Renaud, Léonora Miano, Dominique Sylvain…
-Pendant quatre ans, de 2008 à 2011, elle a programmé et organisé le chapiteau « Toutes les saveurs du monde » avec Olivier Roellinger dans le cadre du salon du livre Etonnants voyageurs [13].
+Elle a dirigé, de 2007 à 2011, la collection gourmande « Exquis d’écrivains » aux éditions Nil  et édité 13 auteurs extrêmement différents comme Pierre Pelot, Martin Winckler, Claude Pujade-Renaud, Léonora Miano, Dominique Sylvain…
+Pendant quatre ans, de 2008 à 2011, elle a programmé et organisé le chapiteau « Toutes les saveurs du monde » avec Olivier Roellinger dans le cadre du salon du livre Etonnants voyageurs .
 </t>
         </is>
       </c>
@@ -550,36 +564,192 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Série Inspecteur Laice
-Eros et Thalasso, Gallimard, coll Série Noire no 2511, 1998 - Traduit en allemand[14] - Rééditions, Gallimard, coll. Folio policier no 402 en 2006 et 2019
-Le Chant du bouc, Gallimard, coll. « Série noire » no 2578, 2000. Traduit en allemand [14] en italien, en anglais, en grec.  Réédition, Gallimard, coll. « Folio policier » no 262, 2000
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Laice</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eros et Thalasso, Gallimard, coll Série Noire no 2511, 1998 - Traduit en allemand - Rééditions, Gallimard, coll. Folio policier no 402 en 2006 et 2019
+Le Chant du bouc, Gallimard, coll. « Série noire » no 2578, 2000. Traduit en allemand  en italien, en anglais, en grec.  Réédition, Gallimard, coll. « Folio policier » no 262, 2000
 More is less, Gallimard, coll. « Série noire » no 2657, 2002  Réédition, Gallimard, coll. « Folio policier » no 521, 2002
-Montmartre, Mont des Martyrs, Gallimard, coll. « Série noire », 2008
-Série Le Poulpe
-Lavande tuera, Baleine, coll. « Le Poulpe », 1997
-Autres romans policiers
-L'Enfer des anges, Fayard, coll. « Noir », 2005
-Tirez sur le caviste, éditions La Branche, coll. « Suite noire », 2007. Traductions : allemand [14], hongrois. Gallimard, coll. « Folio policier » no 908, 2021
+Montmartre, Mont des Martyrs, Gallimard, coll. « Série noire », 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Le Poulpe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lavande tuera, Baleine, coll. « Le Poulpe », 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Enfer des anges, Fayard, coll. « Noir », 2005
+Tirez sur le caviste, éditions La Branche, coll. « Suite noire », 2007. Traductions : allemand , hongrois. Gallimard, coll. « Folio policier » no 908, 2021
 Crise de nerfs, Collection Les petits polars du monde, 2012
 I love Lyon, Collection Les petits polars du Monde, 2015
 Nos derniers festins, Gallimard, coll. « Série noire », 2019Réédition, Gallimard, coll. « Folio policier » no 947, 2021
-Sens interdits, Gallimard, coll. « Série noire », 2022
-Romans
-L'Octobre, Jean-Jacques Pauvert, 1976
+Sens interdits, Gallimard, coll. « Série noire », 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Octobre, Jean-Jacques Pauvert, 1976
 Supermarché rayon bonheur, Manya, 1990
 Le Fil d'Ariane, Manya, 1992
 Le Squatt, Le Cherche midi, 1996
-La Visite, Balland, 2003, folio Gallimard no 4126, 2004 [15], traduit en allemand (Kiepenheuer &amp; Witsch)
+La Visite, Balland, 2003, folio Gallimard no 4126, 2004 , traduit en allemand (Kiepenheuer &amp; Witsch)
 Paradis andalous, Joëlle Losfeld, 2007
-De bouche à bouches, Joëlle Losfeld, 2011, traduit en estonien [16], et en Italien, en Italien, Di Boca in boca, Editions Castelvecchi 2013
-Cinq femmes chinoises, Joëlle Losfeld, 2013, Prix printemps du roman 2013 [5]  Réédition, Gallimard, coll. « Folio » no 5831, 2014
+De bouche à bouches, Joëlle Losfeld, 2011, traduit en estonien , et en Italien, en Italien, Di Boca in boca, Editions Castelvecchi 2013
+Cinq femmes chinoises, Joëlle Losfeld, 2013, Prix printemps du roman 2013   Réédition, Gallimard, coll. « Folio » no 5831, 2014
 Et elles croyaient en Jean-Luc Godard, Joëlle Losfeld, 2015
-L'ourson, Joëlle Losfeld, 2023
-Recueils de nouvelles
-Chairs amies, Ricochet, 2001
+L'ourson, Joëlle Losfeld, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chairs amies, Ricochet, 2001
 Troubles fêtes, Gallimard, coll. « Série noire » no 2622, 2002
-Chercheurs de bleu, Colophon, 2004 [17]
+Chercheurs de bleu, Colophon, 2004 
 Intimités, Gallimard, coll. « Folio 2€ », 2005
 Noir caméra !, Fayard, coll. « Noir », 2006
 Voyages en gourmandises, NiL, 2007
@@ -588,7 +758,7 @@
 Tamalous, La Sirène Étoilée, 2016
 Recueils collectifs
 L’agenda du polar, 1999
-Quelques lettres d’insultes, Colophon, 1999 [17]
+Quelques lettres d’insultes, Colophon, 1999 
 Le bout du monde, Série noire Gallimard, 2001
 Bleu, blanc, sang, Fleuve noir, 2002
 Histoires à coucher dehors, Julliard, 2003
@@ -603,29 +773,214 @@
 Abécédaire légumophile, éditions Virgile, 2011
 Paris noir, éditions Asphalte, 2010, réédition folio policier 2012
 Il fait un temps de poème, éditions filigranes, 2013
-Réseau(x), collection Goater Noir, 2022
-Essais et récits
-Papy boom, Grasset, 1988, avec Maximilienne Levet, Grasset, 1988
+Réseau(x), collection Goater Noir, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Essais et récits</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Papy boom, Grasset, 1988, avec Maximilienne Levet, Grasset, 1988
 Et l'amour dans tout ça ?, avec Kriss Graffiti  Balland, 1989, J’ai lu, 1990
 Rigole et tais-toi, avec Martine Boéri, Calmann-Lévy, 1989
 Un scénario nommé désir, avec Brigitte Peskine, Belfond, 1994
 À cœur et à Kriss, Busclats, 2011
-Signoret ou la traversée des apparences, Busclats, 2015
-Biographie
-Eddy Mitchell, Seghers, 1981
-Littérature jeunesse
-Les vacances se corsent, Albin Michel, 1998
+Signoret ou la traversée des apparences, Busclats, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Eddy Mitchell, Seghers, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les vacances se corsent, Albin Michel, 1998
 Les Otages de Gutenberg, Hachette Jeunesse, 2000 Coécrit avec Claude Pujade-Renaud et Daniel Zimmermann.
-Atomes crochus, Hachette Jeunesse, 2000 Coécrit avec Claude Pujade-Renaud et Daniel Zimmermann
-Théâtre
-Je te le dis, Jeanne, c’est pas une vie la vie qu’on vit ! [6] 1976, Pizza du Marais, Les Blancs-Manteaux, Cour des Miracles, Théâtre Fontaine, Théâtre de l'Atelier... (Plus de 7 ans à l'affiche)
-Jeanne, ma sœur Jeanne ne vois-tu rien venir ? [7], 1983, Bouffes Parisiens
-Arthur [8], 1987, Théâtre Grévin
-Minitel de toi [18], 1987, Théâtre Grévin
-Et pendant ce temps les Japonais travaillent [9], 1989, TLP Déjazet, Palais des Glaces
-Filmographie
-Scénariste
-Au cinéma
+Atomes crochus, Hachette Jeunesse, 2000 Coécrit avec Claude Pujade-Renaud et Daniel Zimmermann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Je te le dis, Jeanne, c’est pas une vie la vie qu’on vit !  1976, Pizza du Marais, Les Blancs-Manteaux, Cour des Miracles, Théâtre Fontaine, Théâtre de l'Atelier... (Plus de 7 ans à l'affiche)
+Jeanne, ma sœur Jeanne ne vois-tu rien venir ? , 1983, Bouffes Parisiens
+Arthur , 1987, Théâtre Grévin
+Minitel de toi , 1987, Théâtre Grévin
+Et pendant ce temps les Japonais travaillent , 1989, TLP Déjazet, Palais des Glaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Au cinéma
 1985 : Les Nanas d'Annick Lanoë
 1992 : Les Mamies d'Annick Lanoë
 1995 : Mécaniques célestes de Fina Torres
@@ -642,9 +997,47 @@
 1999 : épisode Lycée en crise, série Docteur Sylvestre, FR3
 2000 : L'Inconnue du Val-Perdu, téléfilm de Serge Meynard, FR3, ARTE
 2001 : auteure de plusieurs épisodes de l'adaptation en dessin animé des albums Agrippine de Claire Brétécher, CANAL +, ARTE
-2009 : Paradis criminel, mini série (4x52) de Serge Meynard, FR3 (prix de la meilleure série de prime-time du festival de la Rochelle, 2009)
-Actrice
-Au cinéma
+2009 : Paradis criminel, mini série (4x52) de Serge Meynard, FR3 (prix de la meilleure série de prime-time du festival de la Rochelle, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Pelletier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Actrice</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Au cinéma
 1978 : La Barricade du Point-du-Jour de René Richon
 1978 : Pauline et l'Ordinateur de Francis Fehr
 1985 : Les Nanas d'Annick Lanoë
